--- a/data/trans_dic/P23_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares</t>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16,96%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 15,25</t>
+          <t>5,59; 15,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,04; 24,04</t>
+          <t>10,65; 34,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,48</t>
+          <t>7,37; 18,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 18,81</t>
+          <t>5,05; 14,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 20,89</t>
+          <t>11,52; 22,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 17,81</t>
+          <t>11,88; 21,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,21; 15,93</t>
+          <t>9,03; 17,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,38; 19,13</t>
+          <t>7,86; 18,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 15,66</t>
+          <t>9,43; 16,85</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,85; 24,24</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9,68; 16,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 15,09</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 26,98</t>
+          <t>10,41; 22,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 17,28</t>
+          <t>10,64; 24,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,76; 17,13</t>
+          <t>9,59; 23,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 19,12</t>
+          <t>5,6; 17,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,49; 21,9</t>
+          <t>8,95; 19,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,72; 22,01</t>
+          <t>13,11; 25,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 20,02</t>
+          <t>9,91; 21,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 17,82</t>
+          <t>7,34; 20,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 17,96</t>
+          <t>11,03; 18,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 22,29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,23; 20,34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7,93; 16,51</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>28,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,6%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,06%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 21,93</t>
+          <t>2,35; 28,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 43,67</t>
+          <t>3,47; 66,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 50,24</t>
+          <t>14,42; 72,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 15,2</t>
+          <t>0,0; 31,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 26,11</t>
+          <t>0,0; 17,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 15,18</t>
+          <t>7,05; 32,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 15,64</t>
+          <t>1,91; 22,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,88; 30,05</t>
+          <t>0,0; 16,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 31,33</t>
+          <t>1,6; 15,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 46,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 47,8</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 17,1</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,25</t>
+          <t>8,6; 16,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 19,26</t>
+          <t>12,98; 27,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,45</t>
+          <t>11,9; 24,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 16,22</t>
+          <t>5,81; 13,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 19,34</t>
+          <t>10,87; 18,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,01</t>
+          <t>13,74; 21,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 15,37</t>
+          <t>10,34; 17,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,09; 18,1</t>
+          <t>8,61; 16,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,59; 15,94</t>
+          <t>10,61; 15,57</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 22,28</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 19,04</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 13,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39511</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>63627</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45756</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44143</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>81897</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>69439</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53882</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>70351</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>121408</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>133066</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>99638</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>114494</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23932; 64713</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>38731; 126546</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28084; 68752</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25601; 71191</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>58610; 115052</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>50023; 91814</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>36778; 72965</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44296; 106692</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>88360; 157877</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>100814; 190191</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>76283; 127779</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>74421; 161540</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>57486</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>51289</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>49316</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43053</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58933</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>63847</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>51301</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52559</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>116419</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>115135</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>100617</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>95612</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>37430; 81538</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33451; 75686</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>30924; 75720</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23076; 72468</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>38064; 82196</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44349; 87020</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33187; 72009</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31651; 86402</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>86567; 148085</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>85777; 145485</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>73880; 133773</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>66867; 139247</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9832</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22290</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35388</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6573</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3551</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12527</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6748</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5725</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13383</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34817</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>42137</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12298</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2395; 28830</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2766; 52855</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12343; 62113</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 37557</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18059</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5745; 26170</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1578; 18267</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18448</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3237; 31478</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14564; 74439</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18388; 80375</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2655; 39078</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>106829</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>137206</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>130460</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>93770</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>144382</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>145813</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>111931</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>128634</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>251211</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>283019</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>242392</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>222404</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>76464; 142727</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>98337; 210685</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>93874; 193604</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60329; 135249</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>112521; 189650</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>115566; 178470</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>85310; 141746</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>95054; 177181</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>204263; 299613</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>232866; 356235</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>198771; 307243</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>173407; 280328</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
